--- a/theory/figures/cluster_benchmark.xlsx
+++ b/theory/figures/cluster_benchmark.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1 thread" sheetId="1" r:id="rId1"/>
     <sheet name="2 threads" sheetId="2" r:id="rId2"/>
+    <sheet name="3 threads" sheetId="3" r:id="rId3"/>
+    <sheet name="4 threads" sheetId="4" r:id="rId4"/>
+    <sheet name="5 threads" sheetId="5" r:id="rId5"/>
+    <sheet name="6 threads" sheetId="6" r:id="rId6"/>
+    <sheet name="100000_vs_#threads" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t>#Prime</t>
   </si>
@@ -35,6 +40,15 @@
   </si>
   <si>
     <t>New cluster (seconds)</t>
+  </si>
+  <si>
+    <t>#thread</t>
+  </si>
+  <si>
+    <t>Time Elasped (seconds)</t>
+  </si>
+  <si>
+    <t>Speed up (normalized)</t>
   </si>
 </sst>
 </file>
@@ -1013,6 +1027,2244 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed up</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 threads'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 threads'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.61016949152542377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3580246913580247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5610561056105612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5776478840308628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6188938419768706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.770764503680669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F283-414C-B579-6B2FA8C6EF4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420753920"/>
+        <c:axId val="420754576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420753920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(#prime)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420754576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420754576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420753920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed up</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 threads'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 threads'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A54-4686-95CF-088792330E0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420753920"/>
+        <c:axId val="420754576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420753920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(#prime)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420754576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420754576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420753920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed up</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5 threads'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5 threads'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5458-448F-97FD-1376CB84CB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420753920"/>
+        <c:axId val="420754576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420753920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(#prime)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420754576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420754576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420753920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed up</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6 threads'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6 threads'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A016-4673-869A-861CC8F4A1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420753920"/>
+        <c:axId val="420754576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420753920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(#prime)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420754576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420754576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420753920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2155063950339544E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.86768553930758652"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed up vs. #cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46344953675662337"/>
+                  <c:y val="0.12770235299534927"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100000_vs_#threads'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100000_vs_#threads'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9423684776203682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8548286449137326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7507604524458436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6858372278809926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.499433099967435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9079-4940-850D-7FB2FC9A3779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489618840"/>
+        <c:axId val="489616872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489618840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489616872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489616872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489618840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1093,6 +3345,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1610,6 +4062,2586 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2174,6 +7206,189 @@
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2461,7 +7676,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,8 +7840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,4 +7998,646 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f>LOG10(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:H1" si="0">LOG10(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>100000</v>
+      </c>
+      <c r="H2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.1419</v>
+      </c>
+      <c r="F3">
+        <v>3.3738000000000001</v>
+      </c>
+      <c r="G3">
+        <v>83.418199999999999</v>
+      </c>
+      <c r="H3">
+        <v>2253.1289000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C4">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E4">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.1385000000000001</v>
+      </c>
+      <c r="G4">
+        <v>51.527900000000002</v>
+      </c>
+      <c r="H4">
+        <v>1272.4046000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>B3/B4</f>
+        <v>0.61016949152542377</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:H5" si="1">C3/C4</f>
+        <v>0.578125</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.3580246913580247</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.5610561056105612</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.5776478840308628</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.6188938419768706</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.770764503680669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f>LOG10(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:H1" si="0">LOG10(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>100000</v>
+      </c>
+      <c r="H2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>39.228000000000002</v>
+      </c>
+      <c r="H4">
+        <v>968.46950000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="e">
+        <f>B3/B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" ref="C5:H5" si="1">C3/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f>LOG10(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:H1" si="0">LOG10(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>100000</v>
+      </c>
+      <c r="H2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>31.450700000000001</v>
+      </c>
+      <c r="H4">
+        <v>775.20770000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="e">
+        <f>B3/B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" ref="C5:H5" si="1">C3/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f>LOG10(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:H1" si="0">LOG10(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>100000</v>
+      </c>
+      <c r="H2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>26.76</v>
+      </c>
+      <c r="H4">
+        <v>660.52210000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="e">
+        <f>B3/B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" ref="C5:H5" si="1">C3/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3632.4971</v>
+      </c>
+      <c r="C2">
+        <v>1870.1379999999999</v>
+      </c>
+      <c r="D2">
+        <v>1272.4046000000001</v>
+      </c>
+      <c r="E2">
+        <v>968.46950000000004</v>
+      </c>
+      <c r="F2">
+        <v>775.20770000000005</v>
+      </c>
+      <c r="G2">
+        <v>660.52210000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F3" si="0">$B2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.9423684776203682</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2.8548286449137326</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3.7507604524458436</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>4.6858372278809926</v>
+      </c>
+      <c r="G3">
+        <f>$B2/G2</f>
+        <v>5.499433099967435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>